--- a/spreadsheets/White Square Dataframe.xlsx
+++ b/spreadsheets/White Square Dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Models</t>
   </si>
@@ -25,13 +25,16 @@
     <t>Value Loss</t>
   </si>
   <si>
-    <t>&lt;keras.engine.sequential.Sequential object at 0x000001DB096D1A60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;keras.engine.sequential.Sequential object at 0x000001DB1337A550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;keras.engine.sequential.Sequential object at 0x000001DB01999E80&gt;</t>
+    <t>&lt;keras.engine.sequential.Sequential object at 0x000001DD5D0FD8B0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;keras.engine.sequential.Sequential object at 0x000001DD4FE50400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;keras.engine.sequential.Sequential object at 0x000001DD5E719880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;keras.engine.sequential.Sequential object at 0x000001DDAF2746D0&gt;</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +414,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.5057142972946167</v>
+        <v>0.4985714256763458</v>
       </c>
       <c r="C2">
-        <v>0.6932002305984497</v>
+        <v>0.6944359540939331</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,10 +425,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5493749976158142</v>
+        <v>0.4982142746448517</v>
       </c>
       <c r="C3">
-        <v>0.6867647171020508</v>
+        <v>0.6935915946960449</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,10 +436,21 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.567767858505249</v>
+        <v>0.4979464411735535</v>
       </c>
       <c r="C4">
-        <v>0.6832565665245056</v>
+        <v>0.6951512694358826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.7518377900123596</v>
       </c>
     </row>
   </sheetData>
